--- a/BKM 004.xlsx
+++ b/BKM 004.xlsx
@@ -600,14 +600,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -657,16 +657,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,7 +668,16 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -688,7 +688,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -699,14 +699,16 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
@@ -733,9 +735,6 @@
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/BKM 004.xlsx
+++ b/BKM 004.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VokasiRegist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vokasiregist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E698F335-CE46-4C0B-A59E-A2BB8B7B3AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Team" sheetId="2" r:id="rId2"/>
+    <sheet name="Team" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="List Menu" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -596,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -785,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -906,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -927,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
